--- a/WWW/posts/spice-tolerance/post_info.xlsx
+++ b/WWW/posts/spice-tolerance/post_info.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>The Dish on Science</t>
   </si>
@@ -77,7 +77,7 @@
     <t>Post Description</t>
   </si>
   <si>
-    <t>ontrary to popular belief, you cannot permanently destroy your taste buds. Eating spicy foods can hurt your tongue and make you less able to perceive the spice, but your taste receptors won’t be gone forever— the effects of desensitization only last a few days. Instead, new research shows that genetics and personality play a much bigger role in our spice tolerance than the physical properties of taste receptors on our tongues.</t>
+    <t>Contrary to popular belief, you cannot permanently destroy your taste buds. Eating spicy foods can hurt your tongue and make you less able to perceive the spice, but your taste receptors won’t be gone forever— the effects of desensitization only last a few days. Instead, new research shows that genetics and personality play a much bigger role in our spice tolerance than the physical properties of taste receptors on our tongues.</t>
   </si>
   <si>
     <t>thedishonscience.stanford.edu/topics/USE-THIS-STRING</t>
@@ -132,17 +132,15 @@
   </si>
   <si>
     <t>1x1 (WxH) Image File Name (Thumbnail)</t>
-  </si>
-  <si>
-    <t>2021/02/17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -318,7 +316,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -396,6 +394,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="5" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -407,7 +409,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in TableStyleLight1" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in TableStyleLight1" xfId="20" builtinId="54" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -477,15 +479,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>146160</xdr:colOff>
+      <xdr:colOff>200160</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>30600</xdr:rowOff>
+      <xdr:rowOff>12600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>302400</xdr:colOff>
+      <xdr:colOff>355680</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>206280</xdr:rowOff>
+      <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -498,8 +500,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="146160" y="30600"/>
-          <a:ext cx="941400" cy="937440"/>
+          <a:off x="200160" y="12600"/>
+          <a:ext cx="940680" cy="936720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -521,8 +523,8 @@
   </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -796,8 +798,8 @@
       <c r="G20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="2" t="s">
-        <v>39</v>
+      <c r="D21" s="20" t="n">
+        <v>44244</v>
       </c>
     </row>
   </sheetData>
